--- a/biology/Botanique/Château_de_Mercuès/Château_de_Mercuès.xlsx
+++ b/biology/Botanique/Château_de_Mercuès/Château_de_Mercuès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mercu%C3%A8s</t>
+          <t>Château_de_Mercuès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Mercuès est située dans le département du Lot et la région Occitanie sur la commune de Mercuès, il a été pendant 7 siècles la résidence d'été des comtes-évêques de Cahors. C'est aujourd'hui un hôtel Relais &amp; Châteaux, un restaurant gastronomique une étoile au Guide Michelin et un vignoble en AOC Cahors. Il occupe un site classé au-dessus de la rive droite du Lot.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mercu%C3%A8s</t>
+          <t>Château_de_Mercuès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Du VIIe au XVIIIe siècle
-Dans le livre  consacré au château de Mercuès par l’abbé Boulade, ancien directeur d’une école libre à Toulouse, membre de la Société des Études du Lot, l'auteur indique :
+          <t>Du VIIe au XVIIIe siècle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le livre  consacré au château de Mercuès par l’abbé Boulade, ancien directeur d’une école libre à Toulouse, membre de la Société des Études du Lot, l'auteur indique :
 « Il est parlé de ce lieu célèbre dans la vie de saint Didier, vénéré dans le Quercy sous le nom de saint Géry, qui vivait au VIIe siècle, il y est désigné sous le nom de Camp de Mercure ; ce qui pourrait laisser supposer qu’il y avait un fort, mais ce n’est qu’une simple conjecture, car il n’y avait pas les forts dans tous les camps. Cependant, comme les parties les plus anciennes du bâtiment actuel ne remontent guère au-delà du XIIIe siècle, on peut en attribuer la construction aux évêques de Cahors, surtout si l’on remarque que ce devait être une redoutable forteresse ; c’était en quelque sorte la sentinelle avancée de la cité, et il n’est pas étonnant que le château de Mercuès ait joué un grand rôle dans les longues guerres qui ensanglantèrent, au Moyen Âge, tout le midi de la France. 
 » Il est probable que les évêques de Cahors, pour protéger la cité, qui était confiée à leur garde contre les attaques, soit des Anglais, soit des bandes de routiers qui désolaient les campagnes et rançonnaient même les villes, firent construire ce château fort. Il ne faut pas oublier que ce fut par le soin de ces prélats que fut élevée l’enceinte de Cahors, dont une partie subsiste encore ; et comme par sa position, Mercuès était presque inexpugnable, qu’il défendait les approches de la ville, et commandait la vallée du Lot, ils voulurent sans doute ajouter de nouvelles fortifications à celles qu’ils venaient d’élever. Les évènements du XIVe et du XVe siècles ne tardèrent pas à montrer quels services les évêques venaient de rendre à la cause l’indépendance du pays." (...)
 » Après 1793, il changea plusieurs fois de maître. Mgr Balthazard Cousin de Grainville en devint aussi possesseur. Après sa mort, le château redevint une propriété particulière, et resta presque inhabité. Vers la fin de son épiscopat, en 1861, Mgr Bardou l’acquit de M. Lacoste-Lacroux, y exécuta d’importants travaux et le donna par testament au petit séminaire de Monfaucon, qui l’a vendu à Mgr Grimardias. Ce prélat, ami des arts, a voulu rendre à cet édifice sa première splendeur et son ancienne destination. »
-Il est vrai que de nombreux documents officiels des évêques furent expédiés de ce château. Ainsi, le 9 juin 1666, l'évêque, baron et comte de Cahors, Nicolas Sevin, fit sortir son mandement du Grand Pardon de Rocamadour, après avoir « Donné dans notre château de Merquès »[2].
-Du XIXe au XXIe siècle
-Le château resta ainsi jusqu'à la Loi de séparation des Églises et de l'État de 1905 où il devint la propriété de l'État français. Un an plus tard, ce dernier le revendit à un médecin, du nom de Faure, qui en fit sa résidence principale.
-Le 27 décembre 1913, le domaine de Mercuès de 20 hectares devient un site classé à caractère artistique[3].
+Il est vrai que de nombreux documents officiels des évêques furent expédiés de ce château. Ainsi, le 9 juin 1666, l'évêque, baron et comte de Cahors, Nicolas Sevin, fit sortir son mandement du Grand Pardon de Rocamadour, après avoir « Donné dans notre château de Merquès ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Château_de_Mercuès</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Mercu%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Du XIXe au XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château resta ainsi jusqu'à la Loi de séparation des Églises et de l'État de 1905 où il devint la propriété de l'État français. Un an plus tard, ce dernier le revendit à un médecin, du nom de Faure, qui en fit sa résidence principale.
+Le 27 décembre 1913, le domaine de Mercuès de 20 hectares devient un site classé à caractère artistique.
 Le 15 septembre 1947, les façades et les toitures furent inscrites au titre des Monuments historiques. Peu après, les deux filles du médecin héritèrent du château et décidèrent d'y ouvrir un restaurant. Le château de Mercuès devint pour la première fois un lieu d'accueil du public, destination qu'il a gardé sans discontinuer jusqu'à présent.
 En 1966, Georges Héreil devint le propriétaire du château. Après quelques investissements, il transforma l'auberge des filles Faure en restaurant gastronomique et en centre de stage pour l'entreprise Chrysler France, dont il était devenu le président entretemps.
 Après sa mort en 1979, la succession pour le château se trouva être difficile et la justice dut intervenir. Une mise aux enchères s'ensuivit, elle regroupa des acquéreurs potentiels dont Alain Delon. Pourtant, le tribunal donna la préférence à Georges Vigouroux, vigneron négociant de la région, dont le projet de maintenir l'hôtel restaurant et de restaurer le vignoble du château avait un réel impact économique et social sur Cahors et ses environs.
@@ -531,31 +583,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ch%C3%A2teau_de_Mercu%C3%A8s</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_de_Mercuès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Mercu%C3%A8s</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
